--- a/Themenvokabular.xlsx
+++ b/Themenvokabular.xlsx
@@ -1,150 +1,178 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\arbeit\Hiwi\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="5546"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Themenvokabular" sheetId="1" r:id="rId1"/>
+    <sheet name="Themenvokabular" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="512">
-  <si>
-    <t>DEL komplett</t>
-  </si>
-  <si>
-    <t>DEL Schnittmenge</t>
-  </si>
-  <si>
-    <t>Absolutisme éclairé</t>
-  </si>
-  <si>
-    <t>Abus de mots</t>
-  </si>
-  <si>
-    <t>Académie française</t>
-  </si>
-  <si>
-    <t>Académie royale des sciences de Paris</t>
-  </si>
-  <si>
-    <t>Académies de peinture</t>
-  </si>
-  <si>
-    <t>Académies en Europe</t>
-  </si>
-  <si>
-    <t>Académies provinciales</t>
-  </si>
-  <si>
-    <t>Accouchement</t>
-  </si>
-  <si>
-    <t>Acoustique</t>
-  </si>
-  <si>
-    <t>Acteurs et comédiens</t>
-  </si>
-  <si>
-    <t>Administration</t>
-  </si>
-  <si>
-    <t>administration</t>
-  </si>
-  <si>
-    <t>Affinité</t>
-  </si>
-  <si>
-    <t>Afrique</t>
-  </si>
-  <si>
-    <t>Agricultures</t>
-  </si>
-  <si>
-    <t>agriculture</t>
-  </si>
-  <si>
-    <t>Agronomie et agriculture</t>
-  </si>
-  <si>
-    <t>Alchimie</t>
-  </si>
-  <si>
-    <t>Algèbre</t>
-  </si>
-  <si>
-    <t>Alimentation</t>
-  </si>
-  <si>
-    <t>alimentation</t>
-  </si>
-  <si>
-    <t>Allégorie</t>
-  </si>
-  <si>
-    <t>Allemagne</t>
-  </si>
-  <si>
-    <t>allemagne</t>
-  </si>
-  <si>
-    <t>Allemagnes et Saint-Empire</t>
-  </si>
-  <si>
-    <t>Amérique du Nord</t>
-  </si>
-  <si>
-    <t>Amérique latine</t>
-  </si>
-  <si>
-    <t>Amour</t>
-  </si>
-  <si>
-    <t>amour</t>
-  </si>
-  <si>
-    <t>Anarchie</t>
-  </si>
-  <si>
-    <t>Anatomie</t>
-  </si>
-  <si>
-    <t>Anciens et Modernes</t>
-  </si>
-  <si>
-    <t>Angleterre</t>
-  </si>
-  <si>
-    <t>angleterre</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="521">
+  <si>
+    <t xml:space="preserve">DEL komplett</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEL Schnittmenge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ergänzungen Topic Modeling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absolutisme éclairé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fortune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abus de mots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monarchie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Académie française</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relation amoureuse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Académie royale des sciences de Paris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sentiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Académies de peinture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locus amoenus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Académies en Europe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Religion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Académies provinciales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Art</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accouchement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enfance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acoustique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acteurs et comédiens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">administration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Affinité</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afrique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agricultures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agriculture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agronomie et agriculture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alchimie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algèbre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alimentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alimentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allégorie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allemagne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allemagne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allemagnes et Saint-Empire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amérique du Nord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amérique latine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anarchie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anatomie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anciens et Modernes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angleterre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">angleterre</t>
   </si>
   <si>
     <t xml:space="preserve">Anti-Lumières </t>
   </si>
   <si>
-    <t>Antique</t>
-  </si>
-  <si>
-    <t>Apologétique</t>
-  </si>
-  <si>
-    <t>Archéologie</t>
-  </si>
-  <si>
-    <t>archéologie</t>
-  </si>
-  <si>
-    <t>Architecture</t>
+    <t xml:space="preserve">Antique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apologétique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archéologie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">archéologie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Architecture</t>
   </si>
   <si>
     <t xml:space="preserve">Armée </t>
@@ -153,7 +181,7 @@
     <t xml:space="preserve">Artiste </t>
   </si>
   <si>
-    <t>artiste</t>
+    <t xml:space="preserve">artiste</t>
   </si>
   <si>
     <t xml:space="preserve">Astronomie </t>
@@ -162,16 +190,16 @@
     <t xml:space="preserve">Atelier </t>
   </si>
   <si>
-    <t>atelier</t>
+    <t xml:space="preserve">atelier</t>
   </si>
   <si>
     <t xml:space="preserve">Athéisme </t>
   </si>
   <si>
-    <t>Attraction</t>
-  </si>
-  <si>
-    <t>attraction</t>
+    <t xml:space="preserve">Attraction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attraction</t>
   </si>
   <si>
     <t xml:space="preserve">Autobiographie </t>
@@ -180,7 +208,7 @@
     <t xml:space="preserve">Automate </t>
   </si>
   <si>
-    <t>Autorité politique, gouvernement, pouvoir</t>
+    <t xml:space="preserve">Autorité politique, gouvernement, pouvoir</t>
   </si>
   <si>
     <t xml:space="preserve">Aventurier </t>
@@ -192,13 +220,13 @@
     <t xml:space="preserve">Balkans </t>
   </si>
   <si>
-    <t>Banques</t>
+    <t xml:space="preserve">Banques</t>
   </si>
   <si>
     <t xml:space="preserve">Barbare, sauvage </t>
   </si>
   <si>
-    <t>Barbare, sauvage (Représentations du)</t>
+    <t xml:space="preserve">Barbare, sauvage (Représentations du)</t>
   </si>
   <si>
     <t xml:space="preserve">Baroque </t>
@@ -216,7 +244,7 @@
     <t xml:space="preserve">Bibliothèque </t>
   </si>
   <si>
-    <t>bibliothèque</t>
+    <t xml:space="preserve">bibliothèque</t>
   </si>
   <si>
     <t xml:space="preserve">Bienfaisance </t>
@@ -225,10 +253,10 @@
     <t xml:space="preserve">Bonheur </t>
   </si>
   <si>
-    <t>bonheur</t>
-  </si>
-  <si>
-    <t>Botanique</t>
+    <t xml:space="preserve">bonheur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botanique</t>
   </si>
   <si>
     <t xml:space="preserve">Boudoir </t>
@@ -243,7 +271,7 @@
     <t xml:space="preserve">Bureaucratie, administration </t>
   </si>
   <si>
-    <t>Cabinets scientifiques, cabinets de curiosités</t>
+    <t xml:space="preserve">Cabinets scientifiques, cabinets de curiosités</t>
   </si>
   <si>
     <t xml:space="preserve">Cafés </t>
@@ -273,43 +301,43 @@
     <t xml:space="preserve">Chaleur </t>
   </si>
   <si>
-    <t>chaleur</t>
+    <t xml:space="preserve">chaleur</t>
   </si>
   <si>
     <t xml:space="preserve">Chanson </t>
   </si>
   <si>
-    <t>chanson</t>
+    <t xml:space="preserve">chanson</t>
   </si>
   <si>
     <t xml:space="preserve">Chimie </t>
   </si>
   <si>
-    <t>chimie</t>
+    <t xml:space="preserve">chimie</t>
   </si>
   <si>
     <t xml:space="preserve">Chine </t>
   </si>
   <si>
-    <t>chine</t>
+    <t xml:space="preserve">chine</t>
   </si>
   <si>
     <t xml:space="preserve">Chirurgie </t>
   </si>
   <si>
-    <t>Citoyen</t>
-  </si>
-  <si>
-    <t>citoyen</t>
+    <t xml:space="preserve">Citoyen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">citoyen</t>
   </si>
   <si>
     <t xml:space="preserve">Civilisation, civilité </t>
   </si>
   <si>
-    <t>civilisation</t>
-  </si>
-  <si>
-    <t>Classes sociales</t>
+    <t xml:space="preserve">civilisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classes sociales</t>
   </si>
   <si>
     <t xml:space="preserve">Classicisme, classicismes </t>
@@ -318,19 +346,19 @@
     <t xml:space="preserve">Classification </t>
   </si>
   <si>
-    <t>classification</t>
-  </si>
-  <si>
-    <t>Clergés</t>
+    <t xml:space="preserve">classification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clergés</t>
   </si>
   <si>
     <t xml:space="preserve">Collection, curiosité </t>
   </si>
   <si>
-    <t>collection</t>
-  </si>
-  <si>
-    <t>Colonialisme</t>
+    <t xml:space="preserve">collection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colonialisme</t>
   </si>
   <si>
     <t xml:space="preserve">Colporteurs </t>
@@ -339,13 +367,13 @@
     <t xml:space="preserve">Comédie </t>
   </si>
   <si>
-    <t>comédie</t>
-  </si>
-  <si>
-    <t>Comédiens</t>
-  </si>
-  <si>
-    <t>comédien</t>
+    <t xml:space="preserve">comédie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comédiens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comédien</t>
   </si>
   <si>
     <t xml:space="preserve">Commedia dell'arte </t>
@@ -354,7 +382,7 @@
     <t xml:space="preserve">Commerce </t>
   </si>
   <si>
-    <t>commerce</t>
+    <t xml:space="preserve">commerce</t>
   </si>
   <si>
     <t xml:space="preserve">Communautés villageoises </t>
@@ -369,7 +397,7 @@
     <t xml:space="preserve">Contrat social </t>
   </si>
   <si>
-    <t>contrat</t>
+    <t xml:space="preserve">contrat</t>
   </si>
   <si>
     <t xml:space="preserve">Contre-Révolution </t>
@@ -387,7 +415,7 @@
     <t xml:space="preserve">Corps </t>
   </si>
   <si>
-    <t>corps</t>
+    <t xml:space="preserve">corps</t>
   </si>
   <si>
     <t xml:space="preserve">Corpuscule </t>
@@ -396,10 +424,10 @@
     <t xml:space="preserve">Correspondance </t>
   </si>
   <si>
-    <t>correspondance</t>
-  </si>
-  <si>
-    <t>Correspondance littéraire</t>
+    <t xml:space="preserve">correspondance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correspondance littéraire</t>
   </si>
   <si>
     <t xml:space="preserve">Cosmopolitisme </t>
@@ -411,13 +439,13 @@
     <t xml:space="preserve">Couleur </t>
   </si>
   <si>
-    <t>couleur</t>
+    <t xml:space="preserve">couleur</t>
   </si>
   <si>
     <t xml:space="preserve">Cour </t>
   </si>
   <si>
-    <t>cour</t>
+    <t xml:space="preserve">cour</t>
   </si>
   <si>
     <t xml:space="preserve">Crédit, banques </t>
@@ -441,7 +469,7 @@
     <t xml:space="preserve">Danemark </t>
   </si>
   <si>
-    <t>danemark</t>
+    <t xml:space="preserve">danemark</t>
   </si>
   <si>
     <t xml:space="preserve">Danse </t>
@@ -453,7 +481,7 @@
     <t xml:space="preserve">Décoration </t>
   </si>
   <si>
-    <t>décoration</t>
+    <t xml:space="preserve">décoration</t>
   </si>
   <si>
     <t xml:space="preserve">Déisme </t>
@@ -465,7 +493,7 @@
     <t xml:space="preserve">Dessin </t>
   </si>
   <si>
-    <t>dessin</t>
+    <t xml:space="preserve">dessin</t>
   </si>
   <si>
     <t xml:space="preserve">Diable </t>
@@ -474,19 +502,19 @@
     <t xml:space="preserve">Dialogue </t>
   </si>
   <si>
-    <t>dialogue</t>
+    <t xml:space="preserve">dialogue</t>
   </si>
   <si>
     <t xml:space="preserve">Dictionnaire </t>
   </si>
   <si>
-    <t>dictionnaire</t>
+    <t xml:space="preserve">dictionnaire</t>
   </si>
   <si>
     <t xml:space="preserve">Dieu </t>
   </si>
   <si>
-    <t>dieu</t>
+    <t xml:space="preserve">dieu</t>
   </si>
   <si>
     <t xml:space="preserve">Dilettante </t>
@@ -501,7 +529,7 @@
     <t xml:space="preserve">Drame </t>
   </si>
   <si>
-    <t>drame</t>
+    <t xml:space="preserve">drame</t>
   </si>
   <si>
     <t xml:space="preserve">Droit naturel et droits de l'homme </t>
@@ -525,28 +553,28 @@
     <t xml:space="preserve">Écosse </t>
   </si>
   <si>
-    <t>écosse</t>
+    <t xml:space="preserve">écosse</t>
   </si>
   <si>
     <t xml:space="preserve">Éducation, instruction et pédagogie </t>
   </si>
   <si>
-    <t>éducation</t>
+    <t xml:space="preserve">éducation</t>
   </si>
   <si>
     <t xml:space="preserve">Égalité et inégalité </t>
   </si>
   <si>
-    <t>égalité</t>
-  </si>
-  <si>
-    <t>Égyptomanie</t>
+    <t xml:space="preserve">égalité</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Égyptomanie</t>
   </si>
   <si>
     <t xml:space="preserve">Électricité </t>
   </si>
   <si>
-    <t>électricité</t>
+    <t xml:space="preserve">électricité</t>
   </si>
   <si>
     <t xml:space="preserve">Éloquence </t>
@@ -558,19 +586,19 @@
     <t xml:space="preserve">Encyclopédie </t>
   </si>
   <si>
-    <t>encyclopédie</t>
+    <t xml:space="preserve">encyclopédie</t>
   </si>
   <si>
     <t xml:space="preserve">Énergie </t>
   </si>
   <si>
-    <t>énergie</t>
+    <t xml:space="preserve">énergie</t>
   </si>
   <si>
     <t xml:space="preserve">Enfance </t>
   </si>
   <si>
-    <t>enfance</t>
+    <t xml:space="preserve">enfance</t>
   </si>
   <si>
     <t xml:space="preserve">Enseignement technique </t>
@@ -582,7 +610,7 @@
     <t xml:space="preserve">Épicurisme </t>
   </si>
   <si>
-    <t>Érotisme</t>
+    <t xml:space="preserve">Érotisme</t>
   </si>
   <si>
     <t xml:space="preserve">Esclavage </t>
@@ -594,28 +622,28 @@
     <t xml:space="preserve">Espèce </t>
   </si>
   <si>
-    <t>espèce</t>
+    <t xml:space="preserve">espèce</t>
   </si>
   <si>
     <t xml:space="preserve">Essai </t>
   </si>
   <si>
-    <t>essai</t>
+    <t xml:space="preserve">essai</t>
   </si>
   <si>
     <t xml:space="preserve">Esthétique </t>
   </si>
   <si>
-    <t>esthétique</t>
+    <t xml:space="preserve">esthétique</t>
   </si>
   <si>
     <t xml:space="preserve">État </t>
   </si>
   <si>
-    <t>état</t>
-  </si>
-  <si>
-    <t>Étoiles</t>
+    <t xml:space="preserve">état</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Étoiles</t>
   </si>
   <si>
     <t xml:space="preserve">Étrusque </t>
@@ -633,7 +661,7 @@
     <t xml:space="preserve">Famille </t>
   </si>
   <si>
-    <t>famille</t>
+    <t xml:space="preserve">famille</t>
   </si>
   <si>
     <t xml:space="preserve">Fanatisme </t>
@@ -648,7 +676,7 @@
     <t xml:space="preserve">Fête </t>
   </si>
   <si>
-    <t>fête</t>
+    <t xml:space="preserve">fête</t>
   </si>
   <si>
     <t xml:space="preserve">Finances </t>
@@ -660,13 +688,13 @@
     <t xml:space="preserve">Foires et marchés </t>
   </si>
   <si>
-    <t>Folie</t>
+    <t xml:space="preserve">Folie</t>
   </si>
   <si>
     <t xml:space="preserve">Fonction </t>
   </si>
   <si>
-    <t>fonction</t>
+    <t xml:space="preserve">fonction</t>
   </si>
   <si>
     <t xml:space="preserve">Force </t>
@@ -675,7 +703,7 @@
     <t xml:space="preserve">Fortification </t>
   </si>
   <si>
-    <t>fortification</t>
+    <t xml:space="preserve">fortification</t>
   </si>
   <si>
     <t xml:space="preserve">Franc-maçonnerie </t>
@@ -684,25 +712,25 @@
     <t xml:space="preserve">France </t>
   </si>
   <si>
-    <t>france</t>
+    <t xml:space="preserve">france</t>
   </si>
   <si>
     <t xml:space="preserve">Gaz </t>
   </si>
   <si>
-    <t>gaz</t>
-  </si>
-  <si>
-    <t>Génération</t>
-  </si>
-  <si>
-    <t>génération</t>
+    <t xml:space="preserve">gaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Génération</t>
+  </si>
+  <si>
+    <t xml:space="preserve">génération</t>
   </si>
   <si>
     <t xml:space="preserve">Génie </t>
   </si>
   <si>
-    <t>génie</t>
+    <t xml:space="preserve">génie</t>
   </si>
   <si>
     <t xml:space="preserve">Géographie </t>
@@ -714,7 +742,7 @@
     <t xml:space="preserve">Géométrie </t>
   </si>
   <si>
-    <t>géométrie</t>
+    <t xml:space="preserve">géométrie</t>
   </si>
   <si>
     <t xml:space="preserve">Gothique </t>
@@ -723,13 +751,13 @@
     <t xml:space="preserve">Goût </t>
   </si>
   <si>
-    <t>goût</t>
+    <t xml:space="preserve">goût</t>
   </si>
   <si>
     <t xml:space="preserve">Gouvernement </t>
   </si>
   <si>
-    <t>gouvernement</t>
+    <t xml:space="preserve">gouvernement</t>
   </si>
   <si>
     <t xml:space="preserve">Grammaire </t>
@@ -738,19 +766,19 @@
     <t xml:space="preserve">Grand Tour </t>
   </si>
   <si>
-    <t>tour</t>
+    <t xml:space="preserve">tour</t>
   </si>
   <si>
     <t xml:space="preserve">Gravure </t>
   </si>
   <si>
-    <t>gravure</t>
+    <t xml:space="preserve">gravure</t>
   </si>
   <si>
     <t xml:space="preserve">Grotesque </t>
   </si>
   <si>
-    <t>Guerre, paix</t>
+    <t xml:space="preserve">Guerre, paix</t>
   </si>
   <si>
     <t xml:space="preserve">guerre, paix </t>
@@ -762,7 +790,7 @@
     <t xml:space="preserve">Hasard, nécessité </t>
   </si>
   <si>
-    <t>hasard</t>
+    <t xml:space="preserve">hasard</t>
   </si>
   <si>
     <t xml:space="preserve">Héros </t>
@@ -771,7 +799,7 @@
     <t xml:space="preserve">Histoire </t>
   </si>
   <si>
-    <t>histoire</t>
+    <t xml:space="preserve">histoire</t>
   </si>
   <si>
     <t xml:space="preserve">Histoire naturelle </t>
@@ -798,7 +826,7 @@
     <t xml:space="preserve">Idée </t>
   </si>
   <si>
-    <t>idée</t>
+    <t xml:space="preserve">idée</t>
   </si>
   <si>
     <t xml:space="preserve">Idéologie et idéologues </t>
@@ -807,7 +835,7 @@
     <t xml:space="preserve">Idolâtrie </t>
   </si>
   <si>
-    <t>Ile</t>
+    <t xml:space="preserve">Ile</t>
   </si>
   <si>
     <t xml:space="preserve">Illuminisme et théosophie </t>
@@ -816,7 +844,7 @@
     <t xml:space="preserve">Illustration </t>
   </si>
   <si>
-    <t>illustration</t>
+    <t xml:space="preserve">illustration</t>
   </si>
   <si>
     <t xml:space="preserve">Imagination </t>
@@ -837,13 +865,13 @@
     <t xml:space="preserve">Inspiration </t>
   </si>
   <si>
-    <t>inspiration</t>
-  </si>
-  <si>
-    <t>Instruction</t>
-  </si>
-  <si>
-    <t>instruction</t>
+    <t xml:space="preserve">inspiration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instruction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instruction</t>
   </si>
   <si>
     <t xml:space="preserve">Instruments de musique </t>
@@ -855,7 +883,7 @@
     <t xml:space="preserve">Intérêt </t>
   </si>
   <si>
-    <t>intérêt</t>
+    <t xml:space="preserve">intérêt</t>
   </si>
   <si>
     <t xml:space="preserve">Ironie </t>
@@ -864,13 +892,13 @@
     <t xml:space="preserve">Islam </t>
   </si>
   <si>
-    <t>islam</t>
+    <t xml:space="preserve">islam</t>
   </si>
   <si>
     <t xml:space="preserve">Italie </t>
   </si>
   <si>
-    <t>italie</t>
+    <t xml:space="preserve">italie</t>
   </si>
   <si>
     <t xml:space="preserve">Jansénisme </t>
@@ -879,7 +907,7 @@
     <t xml:space="preserve">Japon </t>
   </si>
   <si>
-    <t>japon</t>
+    <t xml:space="preserve">japon</t>
   </si>
   <si>
     <t xml:space="preserve">Jardin du roi </t>
@@ -900,10 +928,10 @@
     <t xml:space="preserve">Justice et prisons </t>
   </si>
   <si>
-    <t>justice</t>
-  </si>
-  <si>
-    <t>Laïcisation</t>
+    <t xml:space="preserve">justice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laïcisation</t>
   </si>
   <si>
     <t xml:space="preserve">Laideur, difformité </t>
@@ -912,7 +940,7 @@
     <t xml:space="preserve">Langue </t>
   </si>
   <si>
-    <t>langue</t>
+    <t xml:space="preserve">langue</t>
   </si>
   <si>
     <t xml:space="preserve">Larmes </t>
@@ -921,19 +949,19 @@
     <t xml:space="preserve">Libéralisme </t>
   </si>
   <si>
-    <t>Liberté</t>
-  </si>
-  <si>
-    <t>liberté</t>
-  </si>
-  <si>
-    <t>Libertinage</t>
+    <t xml:space="preserve">Liberté</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liberté</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libertinage</t>
   </si>
   <si>
     <t xml:space="preserve">Littérature clandestine </t>
   </si>
   <si>
-    <t>littérature</t>
+    <t xml:space="preserve">littérature</t>
   </si>
   <si>
     <t xml:space="preserve">Livre, lecture </t>
@@ -948,10 +976,10 @@
     <t xml:space="preserve">Luxe </t>
   </si>
   <si>
-    <t>Machine</t>
-  </si>
-  <si>
-    <t>machine</t>
+    <t xml:space="preserve">Machine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">machine</t>
   </si>
   <si>
     <t xml:space="preserve">Magnétisme </t>
@@ -963,7 +991,7 @@
     <t xml:space="preserve">Matérialisme </t>
   </si>
   <si>
-    <t>Mathématiques</t>
+    <t xml:space="preserve">Mathématiques</t>
   </si>
   <si>
     <t xml:space="preserve">Mécanique analytique </t>
@@ -972,7 +1000,7 @@
     <t xml:space="preserve">Mécanisme </t>
   </si>
   <si>
-    <t>mécanisme</t>
+    <t xml:space="preserve">mécanisme</t>
   </si>
   <si>
     <t xml:space="preserve">Méchant </t>
@@ -987,7 +1015,7 @@
     <t xml:space="preserve">Mélancolie </t>
   </si>
   <si>
-    <t>Mélodie</t>
+    <t xml:space="preserve">Mélodie</t>
   </si>
   <si>
     <t xml:space="preserve">Mesmérisme </t>
@@ -996,7 +1024,7 @@
     <t xml:space="preserve">Mesure </t>
   </si>
   <si>
-    <t>Métaphysique</t>
+    <t xml:space="preserve">Métaphysique</t>
   </si>
   <si>
     <t xml:space="preserve">Migration et mobilité </t>
@@ -1014,19 +1042,19 @@
     <t xml:space="preserve">Modération </t>
   </si>
   <si>
-    <t>Moeurs</t>
-  </si>
-  <si>
-    <t>Monadologie</t>
-  </si>
-  <si>
-    <t>Monstre</t>
+    <t xml:space="preserve">Moeurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monadologie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monstre</t>
   </si>
   <si>
     <t xml:space="preserve">Montagne </t>
   </si>
   <si>
-    <t>montagne</t>
+    <t xml:space="preserve">montagne</t>
   </si>
   <si>
     <t xml:space="preserve">Montgolfière </t>
@@ -1035,7 +1063,7 @@
     <t xml:space="preserve">Monument </t>
   </si>
   <si>
-    <t>monument</t>
+    <t xml:space="preserve">monument</t>
   </si>
   <si>
     <t xml:space="preserve">Morale et moeurs </t>
@@ -1050,28 +1078,28 @@
     <t xml:space="preserve">Musique </t>
   </si>
   <si>
-    <t>Mystique</t>
-  </si>
-  <si>
-    <t>Mythologie</t>
-  </si>
-  <si>
-    <t>mythologie</t>
+    <t xml:space="preserve">Mystique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mythologie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mythologie</t>
   </si>
   <si>
     <t xml:space="preserve">Nation </t>
   </si>
   <si>
-    <t>nation</t>
+    <t xml:space="preserve">nation</t>
   </si>
   <si>
     <t xml:space="preserve">Nature </t>
   </si>
   <si>
-    <t>nature</t>
-  </si>
-  <si>
-    <t>Nécessité</t>
+    <t xml:space="preserve">nature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nécessité</t>
   </si>
   <si>
     <t xml:space="preserve">Néo-classicisme </t>
@@ -1083,13 +1111,13 @@
     <t xml:space="preserve">Noblesse </t>
   </si>
   <si>
-    <t>noblesse</t>
+    <t xml:space="preserve">noblesse</t>
   </si>
   <si>
     <t xml:space="preserve">Noblesse d'affaires </t>
   </si>
   <si>
-    <t>affaire</t>
+    <t xml:space="preserve">affaire</t>
   </si>
   <si>
     <t xml:space="preserve">Nuit </t>
@@ -1101,7 +1129,7 @@
     <t xml:space="preserve">Opéra </t>
   </si>
   <si>
-    <t>opéra</t>
+    <t xml:space="preserve">opéra</t>
   </si>
   <si>
     <t xml:space="preserve">Opéra-comique </t>
@@ -1113,19 +1141,19 @@
     <t xml:space="preserve">Optique, lumière </t>
   </si>
   <si>
-    <t>lumière</t>
+    <t xml:space="preserve">lumière</t>
   </si>
   <si>
     <t xml:space="preserve">Ordres et classes </t>
   </si>
   <si>
-    <t>classe</t>
+    <t xml:space="preserve">classe</t>
   </si>
   <si>
     <t xml:space="preserve">Organisation </t>
   </si>
   <si>
-    <t>organisation</t>
+    <t xml:space="preserve">organisation</t>
   </si>
   <si>
     <t xml:space="preserve">Orient, orientalisme </t>
@@ -1134,16 +1162,16 @@
     <t xml:space="preserve">Originalité </t>
   </si>
   <si>
-    <t>Pain</t>
-  </si>
-  <si>
-    <t>pain</t>
-  </si>
-  <si>
-    <t>Paix</t>
-  </si>
-  <si>
-    <t>paix</t>
+    <t xml:space="preserve">Pain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paix</t>
   </si>
   <si>
     <t xml:space="preserve">Palladianisme </t>
@@ -1173,19 +1201,19 @@
     <t xml:space="preserve">Paysage </t>
   </si>
   <si>
-    <t>paysage</t>
+    <t xml:space="preserve">paysage</t>
   </si>
   <si>
     <t xml:space="preserve">Paysans, paysannerie </t>
   </si>
   <si>
-    <t>Pédagogie</t>
+    <t xml:space="preserve">Pédagogie</t>
   </si>
   <si>
     <t xml:space="preserve">Peinture </t>
   </si>
   <si>
-    <t>Perfectibilité</t>
+    <t xml:space="preserve">Perfectibilité</t>
   </si>
   <si>
     <t xml:space="preserve">Persiflage </t>
@@ -1194,25 +1222,25 @@
     <t xml:space="preserve">Perspective </t>
   </si>
   <si>
-    <t>Pessimisme</t>
+    <t xml:space="preserve">Pessimisme</t>
   </si>
   <si>
     <t xml:space="preserve">Peuple </t>
   </si>
   <si>
-    <t>peuple</t>
+    <t xml:space="preserve">peuple</t>
   </si>
   <si>
     <t xml:space="preserve">Philosophe </t>
   </si>
   <si>
-    <t>philosophe</t>
+    <t xml:space="preserve">philosophe</t>
   </si>
   <si>
     <t xml:space="preserve">Philosophie allemande </t>
   </si>
   <si>
-    <t>philosophie</t>
+    <t xml:space="preserve">philosophie</t>
   </si>
   <si>
     <t xml:space="preserve">Phlogistique </t>
@@ -1239,7 +1267,7 @@
     <t xml:space="preserve">Poésie en Europe </t>
   </si>
   <si>
-    <t>poésie</t>
+    <t xml:space="preserve">poésie</t>
   </si>
   <si>
     <t xml:space="preserve">Poésie en France </t>
@@ -1251,7 +1279,7 @@
     <t xml:space="preserve">Pologne </t>
   </si>
   <si>
-    <t>pologne</t>
+    <t xml:space="preserve">pologne</t>
   </si>
   <si>
     <t xml:space="preserve">Portrait </t>
@@ -1260,13 +1288,13 @@
     <t xml:space="preserve">Ports </t>
   </si>
   <si>
-    <t>Portugal</t>
+    <t xml:space="preserve">Portugal</t>
   </si>
   <si>
     <t xml:space="preserve">Pouvoir </t>
   </si>
   <si>
-    <t>pouvoir</t>
+    <t xml:space="preserve">pouvoir</t>
   </si>
   <si>
     <t xml:space="preserve">Préjugé </t>
@@ -1275,22 +1303,22 @@
     <t xml:space="preserve">Prince éclairé, absolutisme éclairé </t>
   </si>
   <si>
-    <t>prince</t>
+    <t xml:space="preserve">prince</t>
   </si>
   <si>
     <t xml:space="preserve">Prison </t>
   </si>
   <si>
-    <t>prison</t>
-  </si>
-  <si>
-    <t>Probabilités</t>
+    <t xml:space="preserve">prison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probabilités</t>
   </si>
   <si>
     <t xml:space="preserve">Progrès </t>
   </si>
   <si>
-    <t>progrès</t>
+    <t xml:space="preserve">progrès</t>
   </si>
   <si>
     <t xml:space="preserve">Prométhée </t>
@@ -1299,7 +1327,7 @@
     <t xml:space="preserve">Propriété, propriétaires </t>
   </si>
   <si>
-    <t>propriété</t>
+    <t xml:space="preserve">propriété</t>
   </si>
   <si>
     <t xml:space="preserve">Protestantisme </t>
@@ -1314,13 +1342,13 @@
     <t xml:space="preserve">Pygmalion </t>
   </si>
   <si>
-    <t>Pyrrhonisme</t>
+    <t xml:space="preserve">Pyrrhonisme</t>
   </si>
   <si>
     <t xml:space="preserve">Raison </t>
   </si>
   <si>
-    <t>raison</t>
+    <t xml:space="preserve">raison</t>
   </si>
   <si>
     <t xml:space="preserve">Règles </t>
@@ -1332,7 +1360,7 @@
     <t xml:space="preserve">Religion populaire </t>
   </si>
   <si>
-    <t>religion</t>
+    <t xml:space="preserve">religion</t>
   </si>
   <si>
     <t xml:space="preserve">République des Lettres </t>
@@ -1341,7 +1369,7 @@
     <t xml:space="preserve">Rêve </t>
   </si>
   <si>
-    <t>rêve</t>
+    <t xml:space="preserve">rêve</t>
   </si>
   <si>
     <t xml:space="preserve">Rêverie </t>
@@ -1350,16 +1378,16 @@
     <t xml:space="preserve">Révolution </t>
   </si>
   <si>
-    <t>révolution</t>
+    <t xml:space="preserve">révolution</t>
   </si>
   <si>
     <t xml:space="preserve">Rhétorique </t>
   </si>
   <si>
-    <t>Rire</t>
-  </si>
-  <si>
-    <t>rire</t>
+    <t xml:space="preserve">Rire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rire</t>
   </si>
   <si>
     <t xml:space="preserve">Rococo </t>
@@ -1389,10 +1417,10 @@
     <t xml:space="preserve">Satire </t>
   </si>
   <si>
-    <t>Sauvage</t>
-  </si>
-  <si>
-    <t>Scepticisme</t>
+    <t xml:space="preserve">Sauvage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scepticisme</t>
   </si>
   <si>
     <t xml:space="preserve">Sciences </t>
@@ -1401,7 +1429,7 @@
     <t xml:space="preserve">Sculpture </t>
   </si>
   <si>
-    <t>sculpture</t>
+    <t xml:space="preserve">sculpture</t>
   </si>
   <si>
     <t xml:space="preserve">Sensibilité </t>
@@ -1416,7 +1444,7 @@
     <t xml:space="preserve">Siècle </t>
   </si>
   <si>
-    <t>siècle</t>
+    <t xml:space="preserve">siècle</t>
   </si>
   <si>
     <t xml:space="preserve">Silhouette, découpage </t>
@@ -1431,13 +1459,13 @@
     <t xml:space="preserve">Soldat </t>
   </si>
   <si>
-    <t>soldat</t>
+    <t xml:space="preserve">soldat</t>
   </si>
   <si>
     <t xml:space="preserve">Soleil et système solaire </t>
   </si>
   <si>
-    <t>soleil</t>
+    <t xml:space="preserve">soleil</t>
   </si>
   <si>
     <t xml:space="preserve">Sorcellerie </t>
@@ -1452,7 +1480,7 @@
     <t xml:space="preserve">Suède </t>
   </si>
   <si>
-    <t>suède</t>
+    <t xml:space="preserve">suède</t>
   </si>
   <si>
     <t xml:space="preserve">Suisse </t>
@@ -1461,28 +1489,28 @@
     <t xml:space="preserve">Technique </t>
   </si>
   <si>
-    <t>Terre (Forme de la)</t>
-  </si>
-  <si>
-    <t>terre</t>
-  </si>
-  <si>
-    <t>Terreur</t>
+    <t xml:space="preserve">Terre (Forme de la)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">terre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terreur</t>
   </si>
   <si>
     <t xml:space="preserve">Théâtre et scénographie </t>
   </si>
   <si>
-    <t>théâtre</t>
+    <t xml:space="preserve">théâtre</t>
   </si>
   <si>
     <t xml:space="preserve">Théologie </t>
   </si>
   <si>
-    <t>théologie</t>
-  </si>
-  <si>
-    <t>Théosophie</t>
+    <t xml:space="preserve">théologie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Théosophie</t>
   </si>
   <si>
     <t xml:space="preserve">Thermométrie </t>
@@ -1497,13 +1525,13 @@
     <t xml:space="preserve">Tradition </t>
   </si>
   <si>
-    <t>tradition</t>
+    <t xml:space="preserve">tradition</t>
   </si>
   <si>
     <t xml:space="preserve">Traduction </t>
   </si>
   <si>
-    <t>traduction</t>
+    <t xml:space="preserve">traduction</t>
   </si>
   <si>
     <t xml:space="preserve">Tragédie </t>
@@ -1512,19 +1540,19 @@
     <t xml:space="preserve">Transport </t>
   </si>
   <si>
-    <t>transport</t>
+    <t xml:space="preserve">transport</t>
   </si>
   <si>
     <t xml:space="preserve">Travail </t>
   </si>
   <si>
-    <t>travail</t>
+    <t xml:space="preserve">travail</t>
   </si>
   <si>
     <t xml:space="preserve">Urbanisme </t>
   </si>
   <si>
-    <t>urbanisme</t>
+    <t xml:space="preserve">urbanisme</t>
   </si>
   <si>
     <t xml:space="preserve">Utile </t>
@@ -1542,162 +1570,133 @@
     <t xml:space="preserve">Ville et développement urbain </t>
   </si>
   <si>
-    <t>ville</t>
+    <t xml:space="preserve">ville</t>
   </si>
   <si>
     <t xml:space="preserve">Volcan </t>
   </si>
   <si>
-    <t>volcan</t>
+    <t xml:space="preserve">volcan</t>
   </si>
   <si>
     <t xml:space="preserve">Voyages et voyageurs </t>
   </si>
   <si>
-    <t>Zoologie</t>
+    <t xml:space="preserve">Zoologie</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="16">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF008000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri Light"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="major"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <b val="true"/>
+      <i val="true"/>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1706,2991 +1705,2557 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFF8080"/>
+        <bgColor rgb="FFFF99CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
-    <border>
+  <borders count="2">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF808080"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF808080"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF808080"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF808080"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="37">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
+  <cellStyles count="23">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Accent 1 1" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3 1" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 4" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad 1" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error 1" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote 1" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good 1" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading (user)" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1 1" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2 1" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Hyperlink 1" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note 1" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Result (user)" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status 1" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text 1" xfId="35" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning 1" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B390"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C390"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1:C9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="52.61328125" customWidth="1"/>
-    <col min="2" max="2" width="31.3828125" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="52.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="10.54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+    <row r="2" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+    <row r="3" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+    <row r="4" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+    <row r="5" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+    <row r="6" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
+      <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
+      <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
+    <row r="8" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
+      <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
+      <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
+    <row r="10" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
+    <row r="11" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
+    <row r="12" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B12" s="0" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
+    <row r="13" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
+    <row r="14" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
+      <c r="B15" s="0" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
+    <row r="16" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
+    <row r="17" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
+    <row r="18" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B25" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
+      <c r="B19" s="0" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
+    <row r="20" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
+    <row r="21" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
+      <c r="B21" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B29" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
+    <row r="23" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
+    <row r="24" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
+    <row r="25" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
+      <c r="B25" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B33" t="s">
+    </row>
+    <row r="26" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
+    <row r="27" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
+    <row r="28" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
+    <row r="29" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B29" s="0" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
+    <row r="30" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
+    <row r="31" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="B38" t="s">
+    </row>
+    <row r="32" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
+    <row r="33" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
+      <c r="B33" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="B40" t="s">
+    </row>
+    <row r="34" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
+    <row r="35" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
+    <row r="36" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A43" t="s">
+      <c r="B36" s="0" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
+    <row r="37" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
+    <row r="38" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
+      <c r="B38" s="0" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
+    <row r="39" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
+    <row r="40" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A49" t="s">
+      <c r="B40" s="0" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
+    <row r="41" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
+    <row r="42" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
+    <row r="43" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A53" t="s">
+    <row r="44" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A54" t="s">
+    <row r="45" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B54" t="s">
+    </row>
+    <row r="46" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A55" t="s">
+    <row r="47" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
+    <row r="48" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="B56" t="s">
+    </row>
+    <row r="49" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A57" t="s">
+    <row r="50" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A58" t="s">
+    <row r="51" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A59" t="s">
+    <row r="52" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A60" t="s">
+    <row r="53" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A61" t="s">
+    <row r="54" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="B61" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A62" t="s">
+      <c r="B54" s="0" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A63" t="s">
+    <row r="55" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A64" t="s">
+    <row r="56" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A65" t="s">
+      <c r="B56" s="0" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A66" t="s">
+    <row r="57" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A67" t="s">
+    <row r="58" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A68" t="s">
+    <row r="59" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A69" t="s">
+    <row r="60" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A70" t="s">
+    <row r="61" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A71" t="s">
+      <c r="B61" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="B71" t="s">
+    </row>
+    <row r="63" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A72" t="s">
+    <row r="64" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="B72" t="s">
+    </row>
+    <row r="65" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A73" t="s">
+    <row r="66" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="B73" t="s">
+    </row>
+    <row r="67" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A74" t="s">
+    <row r="68" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="B74" t="s">
+    </row>
+    <row r="69" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A75" t="s">
+    <row r="70" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A76" t="s">
+    <row r="71" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B71" s="0" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A77" t="s">
+    <row r="72" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B72" s="0" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A78" t="s">
+    <row r="73" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A79" t="s">
+      <c r="B73" s="0" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A80" t="s">
+    <row r="74" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B74" s="0" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A81" t="s">
+    <row r="75" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A82" t="s">
+    <row r="76" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B76" s="0" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A83" t="s">
+    <row r="77" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A84" t="s">
+      <c r="B77" s="0" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A85" t="s">
+    <row r="78" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="B85" t="s">
+    </row>
+    <row r="79" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A86" t="s">
+    <row r="80" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B80" s="0" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A87" t="s">
+    <row r="81" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A88" t="s">
+    <row r="82" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B82" s="0" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A89" t="s">
+    <row r="83" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A90" t="s">
+    <row r="84" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A91" t="s">
+    <row r="85" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A92" t="s">
+      <c r="B85" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="B92" t="s">
+    </row>
+    <row r="86" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A93" t="s">
+      <c r="B86" s="0" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A94" t="s">
+    <row r="87" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A95" t="s">
+    <row r="88" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A96" t="s">
+      <c r="B88" s="0" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A97" t="s">
+    <row r="89" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="B97" t="s">
+    </row>
+    <row r="90" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A98" t="s">
+    <row r="91" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A99" t="s">
+    <row r="92" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B92" s="0" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A100" t="s">
+    <row r="93" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A101" t="s">
+    <row r="94" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A102" t="s">
+    <row r="95" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A103" t="s">
+    <row r="96" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="B103" t="s">
+    </row>
+    <row r="97" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A104" t="s">
+      <c r="B97" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="B104" t="s">
+    </row>
+    <row r="98" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A105" t="s">
+    <row r="99" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A106" t="s">
+      <c r="B99" s="0" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A107" t="s">
+    <row r="100" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A108" t="s">
+    <row r="101" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A109" t="s">
+    <row r="102" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A110" t="s">
+    <row r="103" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A111" t="s">
+      <c r="B103" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="B111" t="s">
+    </row>
+    <row r="104" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A112" t="s">
+      <c r="B104" s="0" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A113" t="s">
+    <row r="105" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A114" t="s">
+    <row r="106" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="B114" t="s">
+    </row>
+    <row r="107" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A115" t="s">
+    <row r="108" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A116" t="s">
+    <row r="109" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A117" t="s">
+    <row r="110" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="B117" t="s">
+    </row>
+    <row r="111" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A118" t="s">
+      <c r="B111" s="0" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A119" t="s">
+    <row r="112" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="B119" t="s">
+    </row>
+    <row r="113" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A120" t="s">
+    <row r="114" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B114" s="0" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A121" t="s">
+    <row r="115" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="B121" t="s">
+    </row>
+    <row r="116" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A122" t="s">
+    <row r="117" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A123" t="s">
+      <c r="B117" s="0" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A124" t="s">
+    <row r="118" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A125" t="s">
+    <row r="119" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B119" s="0" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A126" t="s">
+    <row r="120" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A127" t="s">
+      <c r="B120" s="0" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A128" t="s">
+    <row r="121" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A129" t="s">
+      <c r="B121" s="0" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A130" t="s">
+    <row r="122" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A131" t="s">
+    <row r="123" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A132" t="s">
+    <row r="124" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="B132" t="s">
+    </row>
+    <row r="125" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A133" t="s">
+      <c r="B125" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="B133" t="s">
+    </row>
+    <row r="126" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A134" t="s">
+    <row r="127" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="B134" t="s">
+    </row>
+    <row r="128" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A135" t="s">
+    <row r="129" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A136" t="s">
+    <row r="130" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="B136" t="s">
+    </row>
+    <row r="131" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A137" t="s">
+    <row r="132" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A138" t="s">
+      <c r="B132" s="0" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A139" t="s">
+    <row r="133" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B133" s="0" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A140" t="s">
+    <row r="134" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B134" s="0" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A141" t="s">
+    <row r="135" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="B141" t="s">
+    </row>
+    <row r="136" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A142" t="s">
+      <c r="B136" s="0" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A143" t="s">
+    <row r="137" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A144" t="s">
+    <row r="138" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A145" t="s">
+    <row r="139" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A146" t="s">
+      <c r="B139" s="0" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A147" t="s">
+    <row r="140" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A148" t="s">
+      <c r="B140" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="B148" t="s">
+    </row>
+    <row r="141" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A149" t="s">
+      <c r="B141" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="B149" t="s">
+    </row>
+    <row r="142" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A150" t="s">
+    <row r="143" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="B150" t="s">
+    </row>
+    <row r="144" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A151" t="s">
+    <row r="145" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="B151" t="s">
+    </row>
+    <row r="146" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A152" t="s">
+    <row r="147" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A153" t="s">
+    <row r="148" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A154" t="s">
+      <c r="B148" s="0" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A155" t="s">
+    <row r="149" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A156" t="s">
+      <c r="B149" s="0" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A157" t="s">
+    <row r="150" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B150" s="0" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A158" t="s">
+    <row r="151" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A159" t="s">
+      <c r="B151" s="0" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A160" t="s">
+    <row r="152" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A161" t="s">
+    <row r="153" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="B161" t="s">
+    </row>
+    <row r="154" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A162" t="s">
+    <row r="155" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A163" t="s">
+    <row r="156" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A164" t="s">
+    <row r="157" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A165" t="s">
+      <c r="B157" s="0" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A166" t="s">
+    <row r="158" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="B166" t="s">
+    </row>
+    <row r="159" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A167" t="s">
+    <row r="160" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A168" t="s">
+    <row r="161" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B161" s="0" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A169" t="s">
+    <row r="162" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A170" t="s">
+    <row r="163" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="B170" t="s">
+    </row>
+    <row r="164" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A171" t="s">
+    <row r="165" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="B171" t="s">
+    </row>
+    <row r="166" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A172" t="s">
+      <c r="B166" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="B172" t="s">
+    </row>
+    <row r="167" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A173" t="s">
+    <row r="168" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B168" s="0" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A174" t="s">
+    <row r="169" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A175" t="s">
+    <row r="170" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A176" t="s">
+      <c r="B170" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="B176" t="s">
+    </row>
+    <row r="171" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A177" t="s">
+      <c r="B171" s="0" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A178" t="s">
+    <row r="172" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B172" s="0" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A179" t="s">
+    <row r="173" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B173" s="0" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A180" t="s">
+    <row r="174" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A181" t="s">
+    <row r="175" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="B181" t="s">
+    </row>
+    <row r="176" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A182" t="s">
+      <c r="B176" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="B182" t="s">
+    </row>
+    <row r="177" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A183" t="s">
+    <row r="178" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A184" t="s">
+      <c r="B178" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="B184" t="s">
+    </row>
+    <row r="179" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A185" t="s">
+      <c r="B179" s="0" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A186" t="s">
+    <row r="180" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="B186" t="s">
+    </row>
+    <row r="181" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="0" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A187" t="s">
+      <c r="B181" s="0" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A188" t="s">
+    <row r="182" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B182" s="0" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A189" t="s">
+    <row r="183" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="0" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A190" t="s">
+    <row r="184" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="0" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A191" t="s">
+      <c r="B184" s="0" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A192" t="s">
+    <row r="185" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="0" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A193" t="s">
+    <row r="186" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="0" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A194" t="s">
+      <c r="B186" s="0" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A195" t="s">
+    <row r="187" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="0" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A196" t="s">
+    <row r="188" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="0" t="s">
         <v>258</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B188" s="0" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A197" t="s">
+    <row r="189" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="0" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A198" t="s">
+    <row r="190" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="0" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A199" t="s">
+    <row r="191" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="0" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A200" t="s">
+    <row r="192" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="0" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A201" t="s">
+    <row r="193" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="B201" t="s">
+    </row>
+    <row r="194" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="0" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A202" t="s">
+    <row r="195" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="0" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A203" t="s">
+    <row r="196" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="0" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A204" t="s">
+      <c r="B196" s="0" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A205" t="s">
+    <row r="197" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="0" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A206" t="s">
+    <row r="198" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="0" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A207" t="s">
+    <row r="199" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="B207" t="s">
+    </row>
+    <row r="200" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="0" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A208" t="s">
+    <row r="201" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B201" s="0" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A209" t="s">
+    <row r="202" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="0" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A210" t="s">
+    <row r="203" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="0" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A211" t="s">
+    <row r="204" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="B211" t="s">
+    </row>
+    <row r="205" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="0" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A212" t="s">
+    <row r="206" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="0" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A213" t="s">
+    <row r="207" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B207" s="0" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A214" t="s">
+    <row r="208" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B208" s="0" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A215" t="s">
+    <row r="209" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="0" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A216" t="s">
+    <row r="210" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="B216" t="s">
+    </row>
+    <row r="211" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="0" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A217" t="s">
+      <c r="B211" s="0" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A218" t="s">
+    <row r="212" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="0" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A219" t="s">
+    <row r="213" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="0" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A220" t="s">
+      <c r="B213" s="0" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A221" t="s">
+    <row r="214" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="0" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A222" t="s">
+      <c r="B214" s="0" t="s">
         <v>292</v>
       </c>
-      <c r="B222" t="s">
+    </row>
+    <row r="215" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="0" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A223" t="s">
+    <row r="216" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="0" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A224" t="s">
+      <c r="B216" s="0" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A225" t="s">
+    <row r="217" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="B225" t="s">
+    </row>
+    <row r="218" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="0" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A226" t="s">
+    <row r="219" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="0" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A227" t="s">
+    <row r="220" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="0" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A228" t="s">
+    <row r="221" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="0" t="s">
         <v>300</v>
       </c>
-      <c r="B228" t="s">
+    </row>
+    <row r="222" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="0" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A229" t="s">
+      <c r="B222" s="0" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A230" t="s">
+    <row r="223" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="B230" t="s">
+    </row>
+    <row r="224" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="0" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A231" t="s">
+    <row r="225" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B225" s="0" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A232" t="s">
+    <row r="226" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="0" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A233" t="s">
+    <row r="227" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="0" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A234" t="s">
+    <row r="228" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="0" t="s">
         <v>309</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B228" s="0" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A235" t="s">
+    <row r="229" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="0" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A236" t="s">
+    <row r="230" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="0" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A237" t="s">
+      <c r="B230" s="0" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A238" t="s">
+    <row r="231" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="0" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A239" t="s">
+      <c r="B231" s="0" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A240" t="s">
+    <row r="232" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="0" t="s">
         <v>316</v>
       </c>
-      <c r="B240" t="s">
+    </row>
+    <row r="233" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="0" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A241" t="s">
+    <row r="234" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="0" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A242" t="s">
+      <c r="B234" s="0" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A243" t="s">
+    <row r="235" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="0" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A244" t="s">
+    <row r="236" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="0" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A245" t="s">
+    <row r="237" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="0" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A246" t="s">
+    <row r="238" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="0" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A247" t="s">
+    <row r="239" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="0" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A248" t="s">
+    <row r="240" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="0" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A249" t="s">
+      <c r="B240" s="0" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A250" t="s">
+    <row r="241" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="0" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A251" t="s">
+    <row r="242" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="0" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A252" t="s">
+    <row r="243" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="0" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A253" t="s">
+    <row r="244" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="0" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A254" t="s">
+    <row r="245" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="0" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A255" t="s">
+    <row r="246" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="0" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A256" t="s">
+    <row r="247" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="0" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A257" t="s">
+    <row r="248" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="0" t="s">
         <v>334</v>
       </c>
-      <c r="B257" t="s">
+    </row>
+    <row r="249" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="0" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A258" t="s">
+    <row r="250" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="0" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A259" t="s">
+    <row r="251" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="0" t="s">
         <v>337</v>
       </c>
-      <c r="B259" t="s">
+    </row>
+    <row r="252" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="0" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A260" t="s">
+    <row r="253" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="0" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A261" t="s">
+    <row r="254" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="0" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A262" t="s">
+    <row r="255" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="0" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A263" t="s">
+    <row r="256" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="0" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A264" t="s">
+    <row r="257" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="0" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A265" t="s">
+      <c r="B257" s="0" t="s">
         <v>344</v>
       </c>
-      <c r="B265" t="s">
+    </row>
+    <row r="258" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="0" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A266" t="s">
+    <row r="259" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="0" t="s">
         <v>346</v>
       </c>
-      <c r="B266" t="s">
+      <c r="B259" s="0" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A267" t="s">
+    <row r="260" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="0" t="s">
         <v>348</v>
       </c>
-      <c r="B267" t="s">
+    </row>
+    <row r="261" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="0" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A268" t="s">
+    <row r="262" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="0" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A269" t="s">
+    <row r="263" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="0" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A270" t="s">
+    <row r="264" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="0" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A271" t="s">
+    <row r="265" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="0" t="s">
         <v>353</v>
       </c>
-      <c r="B271" t="s">
+      <c r="B265" s="0" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A272" t="s">
+    <row r="266" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="0" t="s">
         <v>355</v>
       </c>
-      <c r="B272" t="s">
+      <c r="B266" s="0" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A273" t="s">
+    <row r="267" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="0" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A274" t="s">
+      <c r="B267" s="0" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A275" t="s">
+    <row r="268" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="0" t="s">
         <v>359</v>
       </c>
-      <c r="B275" t="s">
+    </row>
+    <row r="269" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="0" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A276" t="s">
+    <row r="270" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="0" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A277" t="s">
+    <row r="271" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="0" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A278" t="s">
+      <c r="B271" s="0" t="s">
         <v>363</v>
       </c>
-      <c r="B278" t="s">
+    </row>
+    <row r="272" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="0" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A279" t="s">
+      <c r="B272" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="B279" t="s">
+    </row>
+    <row r="273" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="0" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A280" t="s">
+    <row r="274" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="B280" t="s">
+    </row>
+    <row r="275" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="0" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A281" t="s">
+      <c r="B275" s="0" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A282" t="s">
+    <row r="276" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="0" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A283" t="s">
+    <row r="277" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="0" t="s">
         <v>371</v>
       </c>
-      <c r="B283" t="s">
+    </row>
+    <row r="278" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="0" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A284" t="s">
+      <c r="B278" s="0" t="s">
         <v>373</v>
       </c>
-      <c r="B284" t="s">
+    </row>
+    <row r="279" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="0" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A285" t="s">
+      <c r="B279" s="0" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A286" t="s">
+    <row r="280" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="0" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A287" t="s">
+      <c r="B280" s="0" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A288" t="s">
+    <row r="281" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="0" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A289" t="s">
+    <row r="282" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="0" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A290" t="s">
+    <row r="283" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="0" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A291" t="s">
+      <c r="B283" s="0" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A292" t="s">
+    <row r="284" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="0" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A293" t="s">
+      <c r="B284" s="0" t="s">
         <v>383</v>
       </c>
-      <c r="B293" t="s">
+    </row>
+    <row r="285" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="0" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A294" t="s">
+    <row r="286" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="0" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A295" t="s">
+    <row r="287" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="0" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A296" t="s">
+    <row r="288" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="0" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A297" t="s">
+    <row r="289" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="0" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A298" t="s">
+    <row r="290" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="0" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A299" t="s">
+    <row r="291" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="0" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A300" t="s">
+    <row r="292" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="0" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A301" t="s">
+    <row r="293" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="0" t="s">
         <v>392</v>
       </c>
-      <c r="B301" t="s">
+      <c r="B293" s="0" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A302" t="s">
+    <row r="294" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="0" t="s">
         <v>394</v>
       </c>
-      <c r="B302" t="s">
+    </row>
+    <row r="295" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="0" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A303" t="s">
+    <row r="296" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="0" t="s">
         <v>396</v>
       </c>
-      <c r="B303" t="s">
+    </row>
+    <row r="297" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="0" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A304" t="s">
+    <row r="298" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="0" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A305" t="s">
+    <row r="299" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="0" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A306" t="s">
+    <row r="300" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="0" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A307" t="s">
+    <row r="301" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="0" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A308" t="s">
+      <c r="B301" s="0" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A309" t="s">
+    <row r="302" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="0" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A310" t="s">
+      <c r="B302" s="0" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A311" t="s">
+    <row r="303" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="0" t="s">
         <v>405</v>
       </c>
-      <c r="B311" t="s">
+      <c r="B303" s="0" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A312" t="s">
+    <row r="304" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="0" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A313" t="s">
+    <row r="305" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="0" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A314" t="s">
+    <row r="306" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="0" t="s">
         <v>409</v>
       </c>
-      <c r="B314" t="s">
+    </row>
+    <row r="307" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="0" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A315" t="s">
+    <row r="308" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="0" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A316" t="s">
+    <row r="309" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="0" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A317" t="s">
+    <row r="310" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="0" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A318" t="s">
+    <row r="311" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="0" t="s">
         <v>414</v>
       </c>
-      <c r="B318" t="s">
+      <c r="B311" s="0" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A319" t="s">
+    <row r="312" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="0" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A320" t="s">
+    <row r="313" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="0" t="s">
         <v>417</v>
       </c>
-      <c r="B320" t="s">
+    </row>
+    <row r="314" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="0" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A321" t="s">
+      <c r="B314" s="0" t="s">
         <v>419</v>
       </c>
-      <c r="B321" t="s">
+    </row>
+    <row r="315" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="0" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A322" t="s">
+    <row r="316" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="0" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A323" t="s">
+    <row r="317" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="0" t="s">
         <v>422</v>
       </c>
-      <c r="B323" t="s">
+    </row>
+    <row r="318" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="0" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A324" t="s">
+      <c r="B318" s="0" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A325" t="s">
+    <row r="319" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="0" t="s">
         <v>425</v>
       </c>
-      <c r="B325" t="s">
+    </row>
+    <row r="320" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="0" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A326" t="s">
+      <c r="B320" s="0" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A327" t="s">
+    <row r="321" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="0" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A328" t="s">
+      <c r="B321" s="0" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A329" t="s">
+    <row r="322" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="0" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A330" t="s">
+    <row r="323" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="0" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A331" t="s">
+      <c r="B323" s="0" t="s">
         <v>432</v>
       </c>
-      <c r="B331" t="s">
+    </row>
+    <row r="324" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="0" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A332" t="s">
+    <row r="325" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="0" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A333" t="s">
+      <c r="B325" s="0" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A334" t="s">
+    <row r="326" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="0" t="s">
         <v>436</v>
       </c>
-      <c r="B334" t="s">
+    </row>
+    <row r="327" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="0" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A335" t="s">
+    <row r="328" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="0" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A336" t="s">
+    <row r="329" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="0" t="s">
         <v>439</v>
       </c>
-      <c r="B336" t="s">
+    </row>
+    <row r="330" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="0" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A337" t="s">
+    <row r="331" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="0" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A338" t="s">
+      <c r="B331" s="0" t="s">
         <v>442</v>
       </c>
-      <c r="B338" t="s">
+    </row>
+    <row r="332" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="0" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A339" t="s">
+    <row r="333" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="0" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A340" t="s">
+    <row r="334" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="0" t="s">
         <v>445</v>
       </c>
-      <c r="B340" t="s">
+      <c r="B334" s="0" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A341" t="s">
+    <row r="335" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="0" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A342" t="s">
+    <row r="336" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="0" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A343" t="s">
+      <c r="B336" s="0" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A344" t="s">
+    <row r="337" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="0" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A345" t="s">
+    <row r="338" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="0" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A346" t="s">
+      <c r="B338" s="0" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A347" t="s">
+    <row r="339" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="0" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A348" t="s">
+    <row r="340" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="0" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A349" t="s">
+      <c r="B340" s="0" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A350" t="s">
+    <row r="341" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="0" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A351" t="s">
+    <row r="342" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="0" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A352" t="s">
+    <row r="343" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="0" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A353" t="s">
+    <row r="344" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="0" t="s">
         <v>459</v>
       </c>
-      <c r="B353" t="s">
+    </row>
+    <row r="345" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="0" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A354" t="s">
+    <row r="346" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="0" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A355" t="s">
+    <row r="347" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="0" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A356" t="s">
+    <row r="348" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="0" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A357" t="s">
+    <row r="349" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="0" t="s">
         <v>464</v>
       </c>
-      <c r="B357" t="s">
+    </row>
+    <row r="350" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="0" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A358" t="s">
+    <row r="351" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="0" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A359" t="s">
+    <row r="352" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="0" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A360" t="s">
+    <row r="353" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="0" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A361" t="s">
+      <c r="B353" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="B361" t="s">
+    </row>
+    <row r="354" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="0" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A362" t="s">
+    <row r="355" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="0" t="s">
         <v>471</v>
       </c>
-      <c r="B362" t="s">
+    </row>
+    <row r="356" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="0" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A363" t="s">
+    <row r="357" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="0" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A364" t="s">
+      <c r="B357" s="0" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A365" t="s">
+    <row r="358" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="0" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A366" t="s">
+    <row r="359" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="0" t="s">
         <v>476</v>
       </c>
-      <c r="B366" t="s">
+    </row>
+    <row r="360" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="0" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A367" t="s">
+    <row r="361" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="0" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A368" t="s">
+      <c r="B361" s="0" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A369" t="s">
+    <row r="362" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="0" t="s">
         <v>480</v>
       </c>
-      <c r="B369" t="s">
+      <c r="B362" s="0" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A370" t="s">
+    <row r="363" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="0" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A371" t="s">
+    <row r="364" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="0" t="s">
         <v>483</v>
       </c>
-      <c r="B371" t="s">
+    </row>
+    <row r="365" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="0" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A372" t="s">
+    <row r="366" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="0" t="s">
         <v>485</v>
       </c>
-      <c r="B372" t="s">
+      <c r="B366" s="0" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A373" t="s">
+    <row r="367" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A367" s="0" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A374" t="s">
+    <row r="368" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="0" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A375" t="s">
+    <row r="369" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="0" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A376" t="s">
+      <c r="B369" s="0" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A377" t="s">
+    <row r="370" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A370" s="0" t="s">
         <v>491</v>
       </c>
-      <c r="B377" t="s">
+    </row>
+    <row r="371" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A371" s="0" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A378" t="s">
+      <c r="B371" s="0" t="s">
         <v>493</v>
       </c>
-      <c r="B378" t="s">
+    </row>
+    <row r="372" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A372" s="0" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A379" t="s">
+      <c r="B372" s="0" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A380" t="s">
+    <row r="373" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A373" s="0" t="s">
         <v>496</v>
       </c>
-      <c r="B380" t="s">
+    </row>
+    <row r="374" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A374" s="0" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A381" t="s">
+    <row r="375" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A375" s="0" t="s">
         <v>498</v>
       </c>
-      <c r="B381" t="s">
+    </row>
+    <row r="376" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A376" s="0" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A382" t="s">
+    <row r="377" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A377" s="0" t="s">
         <v>500</v>
       </c>
-      <c r="B382" t="s">
+      <c r="B377" s="0" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A383" t="s">
+    <row r="378" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A378" s="0" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A384" t="s">
+      <c r="B378" s="0" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A385" t="s">
+    <row r="379" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A379" s="0" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A386" t="s">
+    <row r="380" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A380" s="0" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A387" t="s">
+      <c r="B380" s="0" t="s">
         <v>506</v>
       </c>
-      <c r="B387" t="s">
+    </row>
+    <row r="381" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A381" s="0" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A388" t="s">
+      <c r="B381" s="0" t="s">
         <v>508</v>
       </c>
-      <c r="B388" t="s">
+    </row>
+    <row r="382" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A382" s="0" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A389" t="s">
+      <c r="B382" s="0" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A390" t="s">
+    <row r="383" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A383" s="0" t="s">
         <v>511</v>
       </c>
     </row>
+    <row r="384" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A384" s="0" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A385" s="0" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A386" s="0" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A387" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="B387" s="0" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="388" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A388" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="B388" s="0" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="389" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A389" s="0" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="390" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A390" s="0" t="s">
+        <v>520</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/Themenvokabular.xlsx
+++ b/Themenvokabular.xlsx
@@ -34,7 +34,7 @@
     <t xml:space="preserve">Wikidata URLs</t>
   </si>
   <si>
-    <t xml:space="preserve">Wikidata Label</t>
+    <t xml:space="preserve">Wikidata Label (fr)</t>
   </si>
   <si>
     <t xml:space="preserve">Ergänzungen Topic Modeling</t>
@@ -4679,7 +4679,7 @@
   <dimension ref="A1:F390"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4687,7 +4687,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="52.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="28.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="37.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="37.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="26.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="27.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="10.54"/>
